--- a/BillOfMatThermography.xlsx
+++ b/BillOfMatThermography.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurent\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurent\Documents\Internship\Thermal Imaging\Thermography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F6ACC-F733-4349-996C-09FB4017683B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F51B3-762B-4D60-81F9-CBB1B693D345}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E7859F2-7DA8-4FA1-A2D5-C1B030E56C61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Material</t>
   </si>
@@ -160,13 +160,40 @@
   </si>
   <si>
     <t>NOTE: Prices are mainly listed from RS components, VAT excluded. Prices taken 24/09/2019.</t>
+  </si>
+  <si>
+    <t>Electronics components</t>
+  </si>
+  <si>
+    <t>Resistors (ohms):</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Capacitors: (Farad)</t>
+  </si>
+  <si>
+    <t>10p</t>
+  </si>
+  <si>
+    <t>10µ</t>
+  </si>
+  <si>
+    <t>1µ</t>
+  </si>
+  <si>
+    <t>100n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +213,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,13 +277,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBCB87-1EBF-4FBF-9258-F16D92B37008}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,95 +819,169 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2">
         <f>SUMPRODUCT(D2:D12,E2:E12)</f>
         <v>90.226999999999975</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>1.61</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>13</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>160</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2">
         <f>SUM(D14,D16,D18,D18,D17)</f>
         <v>104.83699999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:D26"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:D39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DC348E82-60CE-4766-A09A-1CEAD6716C26}"/>

--- a/BillOfMatThermography.xlsx
+++ b/BillOfMatThermography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurent\Documents\Internship\Thermal Imaging\Thermography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F51B3-762B-4D60-81F9-CBB1B693D345}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045AD5B-D6DC-4B1E-A5EB-51BBD2BF91B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E7859F2-7DA8-4FA1-A2D5-C1B030E56C61}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBCB87-1EBF-4FBF-9258-F16D92B37008}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
